--- a/biology/Zoologie/Abondance_(race_bovine)/Abondance_(race_bovine).xlsx
+++ b/biology/Zoologie/Abondance_(race_bovine)/Abondance_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’abondance est une race bovine française.
@@ -515,15 +527,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Certains textes la disent descendante d'une population originelle, élevée depuis très longtemps dans cette région. Hélène Viallet évoque une introduction de l'ancêtre de la race par les Burgondes[c 1]. Philippe J. Dubois, ornithologue, considère cette hypothèse comme folklorique[a 1]. Les textes des Romains ne décrivent avec précision, ni ne nomment le bétail trouvé dans les Alpes occidentales.
-L'organisme de sélection de la race abondance la rattache à la grande famille des races pie rouge des Montagnes. Elle est donc apparentée aux races simmental et montbéliarde[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains textes la disent descendante d'une population originelle, élevée depuis très longtemps dans cette région. Hélène Viallet évoque une introduction de l'ancêtre de la race par les Burgondes[c 1]. Philippe J. Dubois, ornithologue, considère cette hypothèse comme folklorique[a 1]. Les textes des Romains ne décrivent avec précision, ni ne nomment le bétail trouvé dans les Alpes occidentales.
+L'organisme de sélection de la race abondance la rattache à la grande famille des races pie rouge des Montagnes. Elle est donc apparentée aux races simmental et montbéliarde.
 Au Moyen Âge, les moines des abbayes d'Abondance et Aulps utilisent leur bétail pour défricher leur territoire[a 1]. Là encore, les textes ne précisent pas le nom de la race, ni son apparence physique.
 La race connue actuellement commence à être évoquée au XIXe siècle. Elle est reconnue officiellement en 1891 à la Chapelle d'Abondance. Le livre généalogique est créé à cette même date.
-Géographique
-Elle est élevée depuis longtemps dans le Chablais qui est devenu son berceau. Elle était à l’origine connue sous le nom de « chablaisienne » avant de prendre le nom de la capitale du Chablais français, Abondance.
-Effectifs
-Le cheptel français de race abondance s’élève à environ 150 000 têtes, dont 60 000 vaches. C’est, avec 1,1 % du cheptel laitier, la quatrième race laitière de France en effectif contrôlé (23 727 vaches contrôlées en 2020). Elle est surtout présente en  Haute-Savoie (50 % des effectifs) et Savoie (25 %), mais on la trouve dans 21 départements en Rhône-Alpes, Auvergne, dans les Pyrénées et dans les Alpes du Sud. Elle a été exportée dans plusieurs pays, notamment en Amérique (Canada) pour son efficacité à la production de viande en montagne; en Irak, en Afrique (Égypte, ou en Afrique de l’Ouest) où elle a été croisée avec la race Ndama pour améliorer la production laitière.
 </t>
         </is>
       </c>
@@ -549,12 +562,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C’est une vache de moyen format, 1,39 m de hauteur au sacrum et 580 à 680 kg pour les femelles adultes. Elle porte une robe pie rouge acajou. Le blanc est réparti sur la tête (sauf les « lunettes » rouges autour des yeux), le ventre, les extrémités des pattes et la queue. Au XIXe siècle et au début du XXe siècle, la robe pie ressemblait plus à celle de la montbéliarde. La sélection d'une robe plus couverte a donné l'apparence actuelle[a 2].
+          <t>Géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est élevée depuis longtemps dans le Chablais qui est devenu son berceau. Elle était à l’origine connue sous le nom de « chablaisienne » avant de prendre le nom de la capitale du Chablais français, Abondance.
 </t>
         </is>
       </c>
@@ -580,10 +599,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheptel français de race abondance s’élève à environ 150 000 têtes, dont 60 000 vaches. C’est, avec 1,1 % du cheptel laitier, la quatrième race laitière de France en effectif contrôlé (23 727 vaches contrôlées en 2020). Elle est surtout présente en  Haute-Savoie (50 % des effectifs) et Savoie (25 %), mais on la trouve dans 21 départements en Rhône-Alpes, Auvergne, dans les Pyrénées et dans les Alpes du Sud. Elle a été exportée dans plusieurs pays, notamment en Amérique (Canada) pour son efficacité à la production de viande en montagne; en Irak, en Afrique (Égypte, ou en Afrique de l’Ouest) où elle a été croisée avec la race Ndama pour améliorer la production laitière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abondance_(race_bovine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abondance_(race_bovine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une vache de moyen format, 1,39 m de hauteur au sacrum et 580 à 680 kg pour les femelles adultes. Elle porte une robe pie rouge acajou. Le blanc est réparti sur la tête (sauf les « lunettes » rouges autour des yeux), le ventre, les extrémités des pattes et la queue. Au XIXe siècle et au début du XXe siècle, la robe pie ressemblait plus à celle de la montbéliarde. La sélection d'une robe plus couverte a donné l'apparence actuelle[a 2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abondance_(race_bovine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abondance_(race_bovine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Qualités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est la vache laitière des milieux difficiles. Conçues par la montagne, c’est une excellente marcheuse. Elle est parfaitement adaptée au pâturage, y compris au pâturage d’altitude.
 Vache économique, c’est également la vache laitière qui présente la meilleure longévité. A toutes les lactations et dès la première, l’Abondance subit moins de réformes que les autres races laitières.
